--- a/CPR101 Final Project/CPR101 Project Version3/main_test_cases.xlsx
+++ b/CPR101 Final Project/CPR101 Project Version3/main_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devsoni/Documents/2022_SummerSemester2 - CPA/CPR101NOO - ComputerProgrammingPrinciples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222648F6-1AFA-864C-B4D4-4E39EE38A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13BD8E-F336-264F-BF73-C9ADAC91CEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>Comments</t>
   </si>
@@ -217,10 +217,6 @@
 Date:</t>
   </si>
   <si>
-    <t>Tester
-Date</t>
-  </si>
-  <si>
     <t>Version 2</t>
   </si>
   <si>
@@ -488,15 +484,22 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Daemyeong Kang
+    <t>+ Normal test: test for ordinary scenario</t>
+  </si>
+  <si>
+    <t>+ Edge test: test for larger num_input larger that length of buffer1</t>
+  </si>
+  <si>
+    <t>Dev Soni
 Aug 8th, 2022</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>+ Normal test: test for ordinary scenario</t>
-  </si>
-  <si>
-    <t>+ Edge test: test for larger num_input larger that length of buffer1</t>
+  </si>
+  <si>
+    <t>Dev Soni
+Aug 12, 2022</t>
+  </si>
+  <si>
+    <t>Dev Soni
+Aug 17, 2022</t>
   </si>
 </sst>
 </file>
@@ -1052,23 +1055,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,8 +1358,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1372,10 +1375,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1384,18 +1387,18 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="1:9" s="17" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1406,13 +1409,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>2</v>
@@ -1424,20 +1427,20 @@
     </row>
     <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="44" t="s">
-        <v>17</v>
+      <c r="F4" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="30"/>
@@ -1445,20 +1448,20 @@
     </row>
     <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="44" t="s">
-        <v>17</v>
+      <c r="F5" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="30"/>
@@ -1466,20 +1469,20 @@
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="44" t="s">
-        <v>17</v>
+      <c r="F6" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="30"/>
@@ -1487,20 +1490,20 @@
     </row>
     <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="45" t="s">
-        <v>17</v>
+      <c r="F7" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="30"/>
@@ -1508,20 +1511,20 @@
     </row>
     <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="45" t="s">
-        <v>17</v>
+      <c r="F8" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="30"/>
@@ -1529,20 +1532,20 @@
     </row>
     <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="45" t="s">
-        <v>17</v>
+      <c r="F9" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="30"/>
@@ -1550,20 +1553,20 @@
     </row>
     <row r="10" spans="1:9" ht="98" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="45" t="s">
-        <v>17</v>
+      <c r="F10" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="30"/>
@@ -1571,38 +1574,38 @@
     </row>
     <row r="11" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="45" t="s">
-        <v>17</v>
+      <c r="F11" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="30"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>2</v>
@@ -1631,177 +1634,177 @@
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="45" t="s">
-        <v>17</v>
+      <c r="F14" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="45" t="s">
-        <v>17</v>
+      <c r="F15" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="70" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="45" t="s">
-        <v>17</v>
+      <c r="F16" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="3"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="45" t="s">
-        <v>17</v>
+      <c r="F17" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="3"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="45" t="s">
-        <v>17</v>
+      <c r="F18" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="45" t="s">
-        <v>17</v>
+      <c r="F19" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="45" t="s">
-        <v>17</v>
+      <c r="F20" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="45" t="s">
-        <v>17</v>
+      <c r="F21" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>2</v>
@@ -1830,160 +1833,160 @@
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="37"/>
-      <c r="F24" s="46" t="s">
-        <v>17</v>
+      <c r="F24" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="G24" s="37"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="45" t="s">
-        <v>17</v>
+      <c r="F25" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="45" t="s">
-        <v>17</v>
+      <c r="F26" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="45" t="s">
-        <v>17</v>
+      <c r="F27" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="45" t="s">
-        <v>17</v>
+      <c r="F28" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="45" t="s">
-        <v>17</v>
+      <c r="F29" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="45" t="s">
-        <v>17</v>
+      <c r="F30" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G30" s="3"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="47" t="s">
-        <v>17</v>
+      <c r="F31" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -2003,6 +2006,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DFA9F1094449F4429C899D1FBCA76504" ma:contentTypeVersion="0" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="f3ce1ac6f39644117525a6e5c39a28a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f14782a8a49e570469903e633dbbb3">
     <xsd:element name="properties">
@@ -2116,32 +2134,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40A60C1-0820-4E41-9E17-35816F4C37F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC9D567-8D25-4FE7-8147-4B1428E4F60C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -2156,9 +2152,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC9D567-8D25-4FE7-8147-4B1428E4F60C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40A60C1-0820-4E41-9E17-35816F4C37F3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
